--- a/src/static/cleaned_data/cleaned_data_symbol.xlsx
+++ b/src/static/cleaned_data/cleaned_data_symbol.xlsx
@@ -493,26 +493,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82916.7884827325688591</t>
+          <t>82656.5658353419143880</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5718748127.1528516033442327</t>
+          <t>5480192765.2022061629166276</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.4401747280786942</t>
+          <t>0.3267271217607228</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>82791.3842202897238302</t>
+          <t>82855.0591459532873009</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="3">
@@ -529,26 +529,26 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1818.8076237170217083</t>
+          <t>1821.6453115385049702</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4766428019.3459411165197428</t>
+          <t>4143727965.9638486223119721</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-1.3563933435731850</t>
+          <t>0.1441008874874965</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1825.8535093424786455</t>
+          <t>1822.7562747306736832</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="4">
@@ -565,26 +565,26 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.0020125849348224</t>
+          <t>1.0027082187888486</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>18307782667.4688571644720034</t>
+          <t>16843129596.5090408349064438</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.0086347766169269</t>
+          <t>0.0222109053592891</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0002823425646397</t>
+          <t>1.0002888505983135</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="5">
@@ -605,26 +605,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.1497644567582078</t>
+          <t>2.1507535863850185</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1238750853.4358423662315195</t>
+          <t>1117309220.3098423883560197</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.5159096818527332</t>
+          <t>1.4926033064057195</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.1515863032611537</t>
+          <t>2.1572259774512235</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="6">
@@ -645,26 +645,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>604.6613195400000179</t>
+          <t>604.2860585622207939</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>255971674.4396049080707602</t>
+          <t>232256040.5357346756022673</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.2590069306687397</t>
+          <t>0.4175229073696857</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>605.3547296331083335</t>
+          <t>605.2224401109413875</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="7">
@@ -681,26 +681,26 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>125.2672204508401971</t>
+          <t>125.9364659533555578</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1030343021.0930431740770552</t>
+          <t>949037846.0353344543844363</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.7470015985162058</t>
+          <t>0.8281400814038677</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>124.9818949943009180</t>
+          <t>124.8376673155124758</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="8">
@@ -717,26 +717,26 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.0003507029207151</t>
+          <t>1.0006637471081418</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3212131486.3803947144172163</t>
+          <t>2624630853.4774269215480480</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.0270781050692053</t>
+          <t>-0.0252927451770612</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.0015822519802545</t>
+          <t>1.0014652898001309</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="9">
@@ -753,26 +753,26 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.1694808953819348</t>
+          <t>0.1702171430793463</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>441209058.9153757065191887</t>
+          <t>408087512.9763207928742020</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.7349720309518281</t>
+          <t>1.0409643626036639</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1695603448885122</t>
+          <t>0.1695262215959406</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="10">
@@ -793,26 +793,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.6731510345988975</t>
+          <t>0.6712658646912393</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>229640964.0885899315699713</t>
+          <t>225081866.7667561730817708</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.0674625960801444</t>
+          <t>0.3753428199927294</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.6739562499198983</t>
+          <t>0.6733334287048685</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="11">
@@ -829,26 +829,26 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.2307035262481634</t>
+          <t>0.2321842127481047</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>237089279.7413524358328388</t>
+          <t>208562739.1102299781984939</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-1.6395153608264012</t>
+          <t>-1.1452868660672391</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2320953549970309</t>
+          <t>0.2316784776949375</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="12">
@@ -865,26 +865,26 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1816.2458483800763078</t>
+          <t>1809.7867358536607389</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6260068.3419517004753704</t>
+          <t>5189605.3128159373182312</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-1.4069402425700687</t>
+          <t>-0.4914263070772036</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1832.9886302838556275</t>
+          <t>1822.7942491484253393</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="13">
@@ -901,26 +901,26 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>82112.0183876590350267</t>
+          <t>82517.8211184659228843</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>107738586.7663614385666362</t>
+          <t>14127275.7564902783925246</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-0.3333061838342018</t>
+          <t>0.6155921832794222</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>82981.7007507780351351</t>
+          <t>82969.4758358902328668</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="14">
@@ -937,26 +937,26 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.8127405714776245</t>
+          <t>3.8353238124411245</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>116254527.9634560824456334</t>
+          <t>114504995.7210948054515139</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.1863733089884897</t>
+          <t>2.2170388386016913</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3.7655672859094817</t>
+          <t>3.7755013673543667</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="15">
@@ -973,26 +973,26 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13.6335376890376460</t>
+          <t>13.6270766701416135</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>135506293.4273732830841045</t>
+          <t>127343000.2173266557021733</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-0.4597095166511734</t>
+          <t>0.8089673300476612</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>13.6120301627217862</t>
+          <t>13.6072242169819494</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="16">
@@ -1009,26 +1009,26 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>9.6357253283080724</t>
+          <t>9.6036975170578269</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5023166.8719188923953401</t>
+          <t>4803401.8501467731925831</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.1144331361562571</t>
+          <t>0.2485938492213905</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>9.5406858729989225</t>
+          <t>9.5399946069190810</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="17">
@@ -1049,26 +1049,26 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.2684616527897720</t>
+          <t>0.2692760848567299</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>53000727.5913387874859268</t>
+          <t>48056494.4226127537360642</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.2747258630171079</t>
+          <t>1.3958855702636047</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.2676661239757318</t>
+          <t>0.2682149341125536</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="18">
@@ -1089,26 +1089,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>19.4087907780726472</t>
+          <t>19.2207949751910327</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>123599458.8422985216381119</t>
+          <t>118493898.7587431327550139</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-3.2203503693808117</t>
+          <t>-3.1819056716832420</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19.6268932847541679</t>
+          <t>19.5221445153987295</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="19">
@@ -1129,26 +1129,26 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.3605927823692116</t>
+          <t>2.3677460030136415</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>553534546.1655287625586681</t>
+          <t>523267923.8588717698574329</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.1734251276508148</t>
+          <t>3.8916846880729167</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.3524045340857563</t>
+          <t>2.3634653447219478</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="20">
@@ -1169,26 +1169,26 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.0000126026799554</t>
+          <t>0.0000125563676911</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>76263835.4800202510386686</t>
+          <t>66746027.4177632005186307</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-1.4675099067605612</t>
+          <t>-0.3285391408749847</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0000126341033021</t>
+          <t>0.0000126204515749</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="21">
@@ -1209,26 +1209,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.1705221994890443</t>
+          <t>0.1707385030999834</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92383783.2716593654552800</t>
+          <t>72530990.1723071204237280</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.6388590766725307</t>
+          <t>0.9004175680069230</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.1711704604492137</t>
+          <t>0.1714253891323879</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="22">
@@ -1249,26 +1249,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>86.3453584360287149</t>
+          <t>86.3250924408412675</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>167438391.2111418247739044</t>
+          <t>152449381.9062380666913037</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-0.0174456870136912</t>
+          <t>1.0692790344763196</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>85.7283558199608457</t>
+          <t>85.8598382874845881</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="23">
@@ -1285,26 +1285,26 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.0775325905588617</t>
+          <t>4.0917133336128293</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>71649168.2635192180916581</t>
+          <t>64995038.9283635314798835</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-0.2311142956699293</t>
+          <t>0.7655898433175277</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>4.0858309047599400</t>
+          <t>4.0852526394472472</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="24">
@@ -1321,22 +1321,22 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1823.5622180151762763</t>
+          <t>1819.4319988901549775</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>460014715.1470925548562794</t>
+          <t>8088748.7562500001431572</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-0.9902239768077678</t>
+          <t>-0.2459166363669385</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="25">
@@ -1357,26 +1357,26 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6.2332048972561419</t>
+          <t>6.2659100515826167</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>33764378.2456257441561601</t>
+          <t>33493719.1276047662143918</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-0.1291820518119847</t>
+          <t>0.2855341780067822</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6.2202983241111179</t>
+          <t>6.2216746969693391</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="26">
@@ -1397,26 +1397,26 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>305.1272476123007536</t>
+          <t>303.3784828228326383</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>46157023.4297446612042914</t>
+          <t>40198550.1483949965109614</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-0.5820802661752306</t>
+          <t>0.1311852222278608</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>304.8533220603252699</t>
+          <t>304.6748856736965572</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="27">
@@ -1433,22 +1433,22 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4.5837432346179753</t>
+          <t>4.5681129986061030</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>80862790.7038795745418300</t>
+          <t>67815971.9798920045292426</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-0.5105971018137577</t>
+          <t>-0.7814571333870057</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="28">
@@ -1465,26 +1465,26 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.9993307059073696</t>
+          <t>0.9997384926459668</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>63905023.0946243851125382</t>
+          <t>56060096.5772389049185444</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-0.0221042281542629</t>
+          <t>0.0684516764876065</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.9994919559425325</t>
+          <t>0.9994441698062070</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="29">
@@ -1501,22 +1501,22 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.9999326754034337</t>
+          <t>1.0000223435263763</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>35500615.2659193357231184</t>
+          <t>28173942.8783287607303762</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.0317504921038749</t>
+          <t>0.0387886411593920</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="30">
@@ -1537,22 +1537,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.7628209445150806</t>
+          <t>0.7720886207575817</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>85907964.9047621484009899</t>
+          <t>85140186.2176361111757082</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-2.8679910503264232</t>
+          <t>-4.6202171898941902</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="31">
@@ -1573,26 +1573,26 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12.5828525149608915</t>
+          <t>12.6778141852686785</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>16980719.6435836138813222</t>
+          <t>16381054.6406006159522365</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-2.4782546046548454</t>
+          <t>-0.9540186767550871</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12.7101163257018110</t>
+          <t>12.6667666383796467</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="32">
@@ -1609,26 +1609,26 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>217.2839528129797841</t>
+          <t>216.9142151453673896</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>30438828.4203221909345126</t>
+          <t>29483511.1379636265421097</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.4734842786752440</t>
+          <t>1.4190658954658581</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>215.9741347888256585</t>
+          <t>216.1829491143301462</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="33">
@@ -1645,26 +1645,26 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5.9653064331233209</t>
+          <t>5.9583367682970804</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>53749643.6972073128682960</t>
+          <t>39387583.0790072951435306</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-0.7379963201913656</t>
+          <t>0.4524776360392461</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>5.9756400520575151</t>
+          <t>5.9726785269465495</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="34">
@@ -1681,26 +1681,26 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5.2896373271256143</t>
+          <t>5.3700113318458466</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>42262851.0206306254879862</t>
+          <t>39151839.3709379637696644</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-0.5549697913016573</t>
+          <t>3.5186237213487238</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>5.2571858525231541</t>
+          <t>5.2630178513897298</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="35">
@@ -1717,26 +1717,26 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.6370229745284177</t>
+          <t>2.6365941406364706</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>91849522.0372693899869315</t>
+          <t>93769595.6065129388523226</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1.7930386790045982</t>
+          <t>3.9020762877010692</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2.6389980224807920</t>
+          <t>2.6430199712880010</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="36">
@@ -1757,26 +1757,26 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.0000070537455833</t>
+          <t>0.0000070620128147</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>299995079.3028432586465927</t>
+          <t>293124002.7892667422708149</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-3.8524858332079654</t>
+          <t>-1.7151985489490831</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0000071753556832</t>
+          <t>0.0000071289588759</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="37">
@@ -1793,26 +1793,26 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>48.5469842777667554</t>
+          <t>48.4556999813597985</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2096408.2641717460396120</t>
+          <t>1892286.1632043386376873</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.0806682787645802</t>
+          <t>0.3954752162795330</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>48.4143920352894095</t>
+          <t>48.4177190707576101</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="38">
@@ -1833,26 +1833,26 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.1042218684660437</t>
+          <t>0.1049841987191013</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>42910391.4781205954730584</t>
+          <t>42407317.7907458436023987</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3.4326572548626916</t>
+          <t>4.8864392065793577</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.1050045024148143</t>
+          <t>0.1052868202110110</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="39">
@@ -1873,98 +1873,98 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.8023827261818461</t>
+          <t>0.7923814638305716</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>64145981.9112379831937131</t>
+          <t>59334727.5187505977239135</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-0.4899709235006019</t>
+          <t>-1.2799322962954254</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.8078779220109429</t>
+          <t>0.8067489382076848</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>internet-computer</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ICP</t>
+          <t>FDUSD</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5.3763695773887212</t>
+          <t>0.9982226980448161</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>30484427.3277550327387497</t>
+          <t>873485697.5631510120362890</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-0.7841230571003332</t>
+          <t>-0.0513171732011543</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>5.3609082582608700</t>
+          <t>0.9985858621714304</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>internet-computer</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FDUSD</t>
+          <t>ICP</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.9984051942913332</t>
+          <t>5.3560186211073823</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1029775613.1339066283103287</t>
+          <t>29953887.8876887618785226</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-0.0191701432646542</t>
+          <t>0.3059181030360783</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.9986211944078144</t>
+          <t>5.3577959542649658</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="42">
@@ -1981,26 +1981,26 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.8002040174336619</t>
+          <t>0.8015622929925860</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>80384786.5269370643010838</t>
+          <t>74422963.5435014039149676</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.7139311027876482</t>
+          <t>0.9019816769209038</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.7984788449640853</t>
+          <t>0.7992064206792425</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="43">
@@ -2021,26 +2021,26 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>16.6436203753099326</t>
+          <t>16.6654186833011380</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>22073494.2213449666324360</t>
+          <t>22548585.6804606441936586</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-0.3173136843331806</t>
+          <t>0.4574952869183328</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>16.6754770189594099</t>
+          <t>16.6755819626368201</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="44">
@@ -2057,26 +2057,26 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>164.3369654233845895</t>
+          <t>165.3451761030172454</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>122123189.4238789141187412</t>
+          <t>121736746.8274383543940574</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-4.9327191687546952</t>
+          <t>-1.7725905166855250</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>167.2506526747946012</t>
+          <t>166.5432984205594735</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="45">
@@ -2093,26 +2093,26 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.2045474519240588</t>
+          <t>0.2048238149194853</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>34975271.9187835691712683</t>
+          <t>29753865.7684062830469994</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.6511130688052530</t>
+          <t>2.0138629420681554</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.2027933698041628</t>
+          <t>0.2032011224463736</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="46">
@@ -2133,214 +2133,214 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>10.1776558524615507</t>
+          <t>10.2151380314606083</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>67817765.5761678811151084</t>
+          <t>63099908.4252861921509914</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1.3879574760923528</t>
+          <t>1.7231984307823092</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10.0967196223397926</t>
+          <t>10.1229342006681727</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>VET</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>86712634466.0000000000000000</t>
-        </is>
-      </c>
+          <t>ENA</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.0228433289459476</t>
+          <t>0.3729213287187082</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>19322183.1930679260967015</t>
+          <t>67764752.3154173469315915</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>-0.3931565804151255</t>
+          <t>1.1708623663664272</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.0229436351790824</t>
+          <t>0.3667955159450927</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TAO</t>
+          <t>VET</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>21000000.0000000000000000</t>
+          <t>86712634466.0000000000000000</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>227.9086637098056868</t>
+          <t>0.0227623520427389</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>51460517.5329617147339260</t>
+          <t>18599139.1132353650490500</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1.1762684817015759</t>
+          <t>0.0607612811592081</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>228.5842286857285730</t>
+          <t>0.0229385402688767</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ENA</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
+          <t>TAO</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>21000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.3677972878576275</t>
+          <t>228.9810104689460820</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>73281963.4625906797015883</t>
+          <t>47035804.0061671600730959</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>-1.3720548504417159</t>
+          <t>0.4535633662372402</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.3672500959010286</t>
+          <t>229.1096893257285970</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3.3041332383642257</t>
+          <t>22.3201007138547657</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>31978362.7783752390274434</t>
+          <t>5779605.5943924387426562</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2.2076198209492110</t>
+          <t>0.2999245260771432</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>3.2433517837001646</t>
+          <t>22.3944891978739027</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>TIA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>22.2861856730065422</t>
+          <t>3.2878555132257994</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>6706613.9145861226422360</t>
+          <t>29441358.0594600908854448</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>-0.1531652724035264</t>
+          <t>3.9417278124400859</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>22.3755988290727650</t>
+          <t>3.2591716937578748</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="52">
@@ -2361,26 +2361,26 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3.5306269222896581</t>
+          <t>3.5216813913955795</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>43162292.1663150888734513</t>
+          <t>41610389.1068758081250314</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-1.7941184139372928</t>
+          <t>-0.4480737768579574</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>3.5267289726832598</t>
+          <t>3.5195395914827009</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="53">
@@ -2397,26 +2397,26 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2.7600545381269187</t>
+          <t>2.7738304204229006</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>49786355.0285187274391112</t>
+          <t>47172355.6734509989690824</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>-0.7617960895567618</t>
+          <t>1.5542248682448293</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2.7500620240074429</t>
+          <t>2.7502121113940539</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="54">
@@ -2433,26 +2433,26 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4.3070903238575502</t>
+          <t>4.3083767810627775</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>49927884.3509615151012786</t>
+          <t>42849736.1099549332144257</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>-1.5298393453193274</t>
+          <t>0.2911445160773765</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>4.2962353386074610</t>
+          <t>4.2846138804206856</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="55">
@@ -2473,26 +2473,26 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.0645039936766491</t>
+          <t>0.0643158512220787</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>35402740.1732224496289226</t>
+          <t>33219875.4178673293359377</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>-0.3671223566536879</t>
+          <t>2.3546744773013661</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.0646049766080422</t>
+          <t>0.0647221696596319</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="56">
@@ -2513,26 +2513,26 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.1827495443363942</t>
+          <t>0.1817221541387811</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>27980041.6214093816160169</t>
+          <t>26187451.4052996308710397</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>-1.0203728446262883</t>
+          <t>-0.1823212966458643</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.1836149137983526</t>
+          <t>0.1833944132702904</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="57">
@@ -2549,26 +2549,26 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.3335672382662457</t>
+          <t>0.3345005207937254</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>59515724.3116629749732891</t>
+          <t>52483961.4420920948304700</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>-0.0389081905929188</t>
+          <t>1.2357980194365292</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.3322395408090533</t>
+          <t>0.3328186793963527</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="58">
@@ -2585,26 +2585,26 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>17.6140929398562179</t>
+          <t>17.5448250270189833</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>6225800.8013229874533078</t>
+          <t>6039360.5103362689241935</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1.0213558646834610</t>
+          <t>-0.6719232006818787</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>17.5865542395612954</t>
+          <t>17.6072648176085398</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="59">
@@ -2625,26 +2625,26 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.4894326881193458</t>
+          <t>0.5004226806498550</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>77462959.7294485471590406</t>
+          <t>69507454.6160513006162223</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>-1.0935322904672742</t>
+          <t>2.9765675915225626</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.4903278303471255</t>
+          <t>0.4910468776486858</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="60">
@@ -2661,26 +2661,26 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5.2839574766821289</t>
+          <t>5.2780077835532974</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>36619597.7304532896495680</t>
+          <t>35754150.9048518233431641</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0.7542216654266165</t>
+          <t>-0.8321805750442154</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>5.3208366696182104</t>
+          <t>5.3202992200440066</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="61">
@@ -2701,26 +2701,26 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>11.0870824179948276</t>
+          <t>11.0883873743447377</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>494999.2220712987180253</t>
+          <t>428344.1711923759584146</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.3335320410502523</t>
+          <t>0.5760677231937108</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>11.0659419516174151</t>
+          <t>11.0751549283705362</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="62">
@@ -2741,26 +2741,26 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.4832512135980812</t>
+          <t>0.4861826290348447</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>29010225.6029017856891408</t>
+          <t>31195894.5899081827663922</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>4.5601149346556208</t>
+          <t>5.5870234299110543</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.4759175240221405</t>
+          <t>0.4788991699600357</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="63">
@@ -2777,26 +2777,26 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.7530207746075470</t>
+          <t>0.7554080657487611</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>54594539.0719619644818378</t>
+          <t>50579379.2002234010446696</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>-3.3070664844461663</t>
+          <t>-1.5815992233355388</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.7640222375971435</t>
+          <t>0.7613533311287086</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="64">
@@ -2817,26 +2817,26 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.4736989436110970</t>
+          <t>0.4758865359415437</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>54021847.3893154828041537</t>
+          <t>51776683.9788372120893112</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>-0.6745263403410042</t>
+          <t>1.6657117545577080</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.4728618706686799</t>
+          <t>0.4728461072435460</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="65">
@@ -2857,26 +2857,26 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1277.9630269941052040</t>
+          <t>1274.4636925391973473</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>27725609.6423535942061477</t>
+          <t>24651266.2097998962140243</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>-4.8141648310024183</t>
+          <t>-2.6432692389765054</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1305.9867566995401660</t>
+          <t>1296.6654954362469886</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="66">
@@ -2897,26 +2897,26 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.4364301170547399</t>
+          <t>0.4332356354046108</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>43209029.2762086072382175</t>
+          <t>42214189.7376783664922737</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>-3.8391408654979894</t>
+          <t>-2.5425459043061331</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.4495629172750414</t>
+          <t>0.4472967803066455</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="67">
@@ -2933,26 +2933,26 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.0665151584181181</t>
+          <t>0.0668413305061664</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>7730999.0898683165671155</t>
+          <t>8174744.2614683774641083</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>-3.4844309226849261</t>
+          <t>-1.8694887462597167</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.0679297363148188</t>
+          <t>0.0676219798563000</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="68">
@@ -2973,26 +2973,26 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.5493715757267423</t>
+          <t>0.5444217237545650</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>9721440.9856041665907245</t>
+          <t>9113997.3973329651846695</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>-1.9424160333784621</t>
+          <t>-0.2628126707429154</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.5506830042304253</t>
+          <t>0.5499373486670961</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="69">
@@ -3009,26 +3009,26 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.7857760989309165</t>
+          <t>0.7875320359885018</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>63445489.8588118133857743</t>
+          <t>58106757.9307331695864272</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>-0.0855752846678216</t>
+          <t>1.5592600444157856</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.7847652286707520</t>
+          <t>0.7850781184311289</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="70">
@@ -3049,166 +3049,170 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.6264866511363459</t>
+          <t>0.6260389461593980</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>14007124.9344268512894152</t>
+          <t>12830259.7133575488821977</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>-0.9162540514067228</t>
+          <t>0.3520950395419311</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.6192038847170982</t>
+          <t>0.6187748747585722</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>wbnb</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>WBNB</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
+          <t>EOS</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2100000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>600.7341966414022050</t>
+          <t>0.5938464843289947</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11243355.0300678220063358</t>
+          <t>137794182.2510148546485712</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>-0.9314445701494050</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr"/>
+          <t>7.8356742863510676</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.5905254766448291</t>
+        </is>
+      </c>
       <c r="H71" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>usual-usd</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>EOS</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>2100000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>USD0</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.6038286768427892</t>
+          <t>0.9972928632796478</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>131003662.0506341024543419</t>
+          <t>1348705.9199999998561367</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>8.9905049361011250</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.5883888384081505</t>
-        </is>
-      </c>
+          <t>-0.0412787913723392</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>usual-usd</t>
+          <t>bonk1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>USD0</t>
+          <t>BONK</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.9977407311008007</t>
+          <t>0.0000114214337044</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>20088895.7235329895452453</t>
+          <t>39697530.0950368393578663</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>-0.0023119135026575</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr"/>
+          <t>1.6017145127065166</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0000113530216234</t>
+        </is>
+      </c>
       <c r="H73" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>bonk1</t>
+          <t>binaryx-new</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BONK</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
+          <t>FORM</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>580000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.0000113726704124</t>
+          <t>2.3058262003748224</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>44949292.4845418969420259</t>
+          <t>3929166.6986101736853574</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>-0.0180219692934258</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>0.0000113374521846</t>
-        </is>
-      </c>
+          <t>4.7938621326913842</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="75">
@@ -3225,26 +3229,26 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.0897093741246989</t>
+          <t>0.0900549160427776</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>8041436.3793050719421586</t>
+          <t>6880349.0705871056534606</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>-0.4753013880346093</t>
+          <t>1.7945693397404667</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0.0894557249361637</t>
+          <t>0.0894050417031447</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="76">
@@ -3261,26 +3265,26 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.1786462271684566</t>
+          <t>0.1791469011108969</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>33186784.3344792876540820</t>
+          <t>31105394.4142914264253163</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>-0.7946211490562297</t>
+          <t>0.6821100066324752</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.1793161245785532</t>
+          <t>0.1789644019974375</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="77">
@@ -3301,726 +3305,726 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>8.7958851480641705</t>
+          <t>8.8285134132284844</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>45836680.4466174893752513</t>
+          <t>46127859.3840363062726192</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>-0.0935746096683801</t>
+          <t>1.0539296652426328</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>8.7784719504925445</t>
+          <t>8.7864190615826733</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>binaryx-new</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>FORM</t>
+          <t>QNT</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>580000000.0000000000000000</t>
+          <t>14881364.0000000000000000</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2.2630511816159190</t>
+          <t>69.7622294192880909</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3932386.2238494675215569</t>
+          <t>8570183.6955206406358085</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1.0074385785197137</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr"/>
+          <t>1.5612559842257071</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>69.5959777940008358</t>
+        </is>
+      </c>
       <c r="H78" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>QNT</t>
+          <t>THETA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>14881364.0000000000000000</t>
+          <t>1000000000.0000000000000000</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>69.8623015941026254</t>
+          <t>0.8236780605475428</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>9068450.5338910730989055</t>
+          <t>9118342.5562565025559040</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0.6280314888356847</t>
+          <t>-0.5359946867989800</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>69.5468348416527607</t>
+          <t>0.8302442045829244</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>theta</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>THETA</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>1000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>FLR</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.8287081540332393</t>
+          <t>0.0133947292482760</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>9744910.2870855192982737</t>
+          <t>8899582.8361347553898263</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>-2.8372982437670743</t>
+          <t>-0.5780801669154456</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.8331764878724043</t>
+          <t>0.0134336878945874</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>flare</t>
+          <t>paypal-usd</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FLR</t>
+          <t>PYUSD</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.0132991055181932</t>
+          <t>0.9986096346698130</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>7970869.9670327943081028</t>
+          <t>7766737.7580430460935742</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>-0.4677425020187143</t>
+          <t>0.0451139468396770</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.0134506247341788</t>
+          <t>0.9984528844538174</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>paypal-usd</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PYUSD</t>
+          <t>BERA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.9985022620558683</t>
+          <t>7.3381550126151212</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>7516012.0992107581547545</t>
+          <t>87499169.8763218282185997</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0.0137574419923531</t>
+          <t>-5.2269563987730112</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.9984522729690971</t>
+          <t>7.4692173199799842</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>berachain</t>
+          <t>lido-dao</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BERA</t>
+          <t>LDO</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>7.4090621791552874</t>
+          <t>0.8702522327944304</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>89026323.6212763599313706</t>
+          <t>26765928.8534443244708133</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>-6.2214689875130021</t>
+          <t>-0.0686874201098381</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>7.5401675251296157</t>
+          <t>0.8686897768444410</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>lido-dao</t>
+          <t>tether-gold</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>LDO</t>
+          <t>XAUT</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.8690687596002477</t>
+          <t>3110.6533419312776475</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>27353309.9746118470821043</t>
+          <t>5671308.6126342522331065</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>-1.9000742496713360</t>
+          <t>-0.1033796854324168</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.8710360125130018</t>
+          <t>3102.1113052117993358</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>tether-gold</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>XAUT</t>
+          <t>NEXO</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>3105.8217069894061610</t>
+          <t>1.0719726739054031</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>6025169.3466185929079873</t>
+          <t>3008086.0254431060686238</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>-0.3050607673322401</t>
+          <t>-0.4096824416545598</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>3103.7279418698772412</t>
+          <t>1.0754648283495225</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NEXO</t>
+          <t>JTO</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1.0896601510737038</t>
+          <t>2.2152160833975362</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3188781.0245416753786795</t>
+          <t>13430493.4120611782558072</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0.4984862122315703</t>
+          <t>2.9083403595487034</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.0763968553549678</t>
+          <t>2.1847028308031253</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>JTO</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
+          <t>GALA</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>50000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2.2081901719733103</t>
+          <t>0.0155404070987683</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>13202182.7411278524653010</t>
+          <t>28174138.6535680303677203</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>4.0431098061899553</t>
+          <t>3.5662073476538781</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2.1777362786129459</t>
+          <t>0.0154328503663102</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>GALA</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>50000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>XTZ</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.0155477125333605</t>
+          <t>0.6545863331690414</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>34356457.6636185121780994</t>
+          <t>4625988.2994441442428015</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0.1932679511775867</t>
+          <t>-0.0339107676627609</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0.0153649025618433</t>
+          <t>0.6546292767800348</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>XTZ</t>
+          <t>SAND</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.6546770587575958</t>
+          <t>0.2715519147686613</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>4993012.6869089878637055</t>
+          <t>11669290.1879492782682715</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>-0.5271791681415639</t>
+          <t>1.6203834604969798</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0.6547043856052576</t>
+          <t>0.2709836052314141</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>bittorrent</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SAND</t>
+          <t>BTTOLD</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.2716212915879926</t>
+          <t>0.0000006745132710</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>13243734.2601066921811856</t>
+          <t>868495.9620615237787550</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0.1578686978249370</t>
+          <t>0.0731058347261706</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.2707712609779487</t>
+          <t>0.0000006755091103</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>bittorrent</t>
+          <t>pax-gold</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BTTOLD</t>
+          <t>PAXG</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0.0000006722668399</t>
+          <t>3127.3512476068518462</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>964178.7937731921564321</t>
+          <t>43585587.8894359584595505</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>-0.3983042931841228</t>
+          <t>0.5126829493593221</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.0000006754789241</t>
+          <t>3122.1847270160477491</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>pax-gold</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PAXG</t>
+          <t>IOTA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>3132.4073641538494446</t>
+          <t>0.1731135996800493</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>43893164.4126756440356279</t>
+          <t>8402324.3017096057937614</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0.7502458435500204</t>
+          <t>1.0508623849287444</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>3120.1892375105473421</t>
+          <t>0.1733588274375190</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>bitcoin-sv</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>BSV</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0.1727886953268765</t>
+          <t>31.9848054000546281</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>8655888.5717021311668541</t>
+          <t>6289133.1045184221306940</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>-0.5656167906202642</t>
+          <t>2.3130520485473293</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.1734645905410681</t>
+          <t>31.9120204550091855</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>bitcoin-sv</t>
+          <t>curve-dao-token</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BSV</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
+          <t>CRV</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>3030303030.2990000000000000</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>31.9316079677854307</t>
+          <t>0.4794280003176883</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>6808570.8239188279123292</t>
+          <t>36098765.4550325365123296</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>-0.3146607037735575</t>
+          <t>-0.9122635749065849</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>31.9246053866936951</t>
+          <t>0.4823501414497256</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>curve-dao-token</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CRV</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>3030303030.2990000000000000</t>
-        </is>
-      </c>
+          <t>KAIA</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.4797532931330171</t>
+          <t>0.1031772229140968</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>37143185.2960708810971040</t>
+          <t>3905758.6575596325297607</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>-1.5518680076327210</t>
+          <t>1.2404690343101225</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0.4827899417720555</t>
+          <t>0.1031359067550185</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>KAIA</t>
+          <t>FLOW</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.1031787460292925</t>
+          <t>0.3840808886382666</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4330615.3316225324456004</t>
+          <t>7322659.8909191019537538</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0.0930973003800359</t>
+          <t>1.5962620526860769</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.1030482548852833</t>
+          <t>0.3824434500533655</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="97">
@@ -4041,182 +4045,186 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1.9976818849370269</t>
+          <t>1.9986832673526854</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>41263298.8620870778775242</t>
+          <t>38814305.7279621063202662</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>-0.2616449056017938</t>
+          <t>0.9145199297703079</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2.0071109066769971</t>
+          <t>2.0078668556112535</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>helium</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FLOW</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
+          <t>HNT</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>223000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.3826285391508524</t>
+          <t>3.2320321030784411</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>7453219.8795418599666173</t>
+          <t>4344333.3046030776490347</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>-0.0570429224120130</t>
+          <t>4.2595674482531478</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.3822625240252177</t>
+          <t>3.2202984606747311</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>HNT</t>
+          <t>ZEC</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>223000000.0000000000000000</t>
+          <t>21000000.0000000000000000</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>3.2111751153327410</t>
+          <t>36.3808141247237805</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>4658879.2649954974917703</t>
+          <t>7250480.9315876974521080</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>3.5839280481133219</t>
+          <t>1.6159434721833690</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>3.2038076719185671</t>
+          <t>36.0910180312829565</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>ethereum-name-service</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ZEC</t>
+          <t>ENS</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>21000000.0000000000000000</t>
+          <t>100000000.0000000000000000</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>36.2424281043417757</t>
+          <t>15.9786101234306466</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>7555036.1863348790657646</t>
+          <t>22229840.7220505726463294</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0.6166750864665108</t>
+          <t>1.4849730655537068</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>36.0653319432336121</t>
+          <t>15.9097330924115601</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ethereum-name-service</t>
+          <t>floki-inu</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ENS</t>
+          <t>FLOKI</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>100000000.0000000000000000</t>
+          <t>0.0000000000000000</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>16.0056862018917924</t>
+          <t>0.0000586323215316</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>23906502.0200030915198407</t>
+          <t>38723854.6758202467034459</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>-0.1551305279985365</t>
+          <t>1.3611219601125127</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>15.9187589996166714</t>
+          <t>0.0000581594769755</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>1743348443776</v>
+        <v>1743361182106</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/cleaned_data/cleaned_data_symbol.xlsx
+++ b/src/static/cleaned_data/cleaned_data_symbol.xlsx
@@ -493,26 +493,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82656.5658353419143880</t>
+          <t>82704.8538490923053636</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5480192765.2022061629166276</t>
+          <t>5481135534.0580898928877092</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.3267271217607228</t>
+          <t>0.4735418379954891</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>82855.0591459532873009</t>
+          <t>82865.4301975738748998</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="3">
@@ -529,26 +529,26 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1821.6453115385049702</t>
+          <t>1826.1841689206343992</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4143727965.9638486223119721</t>
+          <t>4175180210.7943098475887076</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.1441008874874965</t>
+          <t>0.4008498122672161</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1822.7562747306736832</t>
+          <t>1822.5464876923115440</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="4">
@@ -565,26 +565,26 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.0027082187888486</t>
+          <t>1.0028028724239883</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>16843129596.5090408349064438</t>
+          <t>16889414674.7189513373069233</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.0222109053592891</t>
+          <t>0.0384470409738277</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0002888505983135</t>
+          <t>1.0002822876053214</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="5">
@@ -605,26 +605,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.1507535863850185</t>
+          <t>2.1607317494573460</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1117309220.3098423883560197</t>
+          <t>1135251352.9092981969984035</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.4926033064057195</t>
+          <t>1.6874075688239753</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.1572259774512235</t>
+          <t>2.1582413351714459</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="6">
@@ -645,26 +645,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>604.2860585622207939</t>
+          <t>604.7916261043849145</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>232256040.5357346756022673</t>
+          <t>229928302.6426411631625929</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.4175229073696857</t>
+          <t>0.1636104082446619</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>605.2224401109413875</t>
+          <t>605.3684300075688819</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="7">
@@ -681,26 +681,26 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>125.9364659533555578</t>
+          <t>126.2314166858194739</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>949037846.0353344543844363</t>
+          <t>953154026.3852152837637849</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.8281400814038677</t>
+          <t>1.1080568048974445</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>124.8376673155124758</t>
+          <t>124.9012036470155358</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="8">
@@ -717,26 +717,26 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.0006637471081418</t>
+          <t>0.9999719303313459</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2624630853.4774269215480480</t>
+          <t>2637758779.9406141599200162</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.0252927451770612</t>
+          <t>-0.0169607808786054</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.0014652898001309</t>
+          <t>1.0014927744932953</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="9">
@@ -753,26 +753,26 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.1702171430793463</t>
+          <t>0.1705130131247783</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>408087512.9763207928742020</t>
+          <t>408594154.5396917389095039</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.0409643626036639</t>
+          <t>1.3074862421276879</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1695262215959406</t>
+          <t>0.1695868704628094</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="10">
@@ -793,26 +793,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.6712658646912393</t>
+          <t>0.6722580218902258</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>225081866.7667561730817708</t>
+          <t>226038813.7367630240289191</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.3753428199927294</t>
+          <t>0.5486569237491160</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.6733334287048685</t>
+          <t>0.6732855680187255</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="11">
@@ -829,26 +829,26 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.2321842127481047</t>
+          <t>0.2322688876859461</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>208562739.1102299781984939</t>
+          <t>208148562.0900334259472639</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-1.1452868660672391</t>
+          <t>-0.9697758923119343</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2316784776949375</t>
+          <t>0.2315697321919429</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="12">
@@ -865,26 +865,26 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1809.7867358536607389</t>
+          <t>1810.9922054882756851</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5189605.3128159373182312</t>
+          <t>4986223.6021952405444151</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-0.4914263070772036</t>
+          <t>-0.3024847172370749</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1822.7942491484253393</t>
+          <t>1821.6633295307420998</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="13">
@@ -901,26 +901,26 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>82517.8211184659228843</t>
+          <t>82585.9957241520785385</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>14127275.7564902783925246</t>
+          <t>14141420.4807653262454303</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.6155921832794222</t>
+          <t>0.7056720712428559</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>82969.4758358902328668</t>
+          <t>82965.3492143456395151</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="14">
@@ -937,26 +937,26 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.8353238124411245</t>
+          <t>3.8813204652848511</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>114504995.7210948054515139</t>
+          <t>120415195.6230400166611299</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.2170388386016913</t>
+          <t>2.9488938028714850</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3.7755013673543667</t>
+          <t>3.7812164708104158</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="15">
@@ -973,26 +973,26 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13.6270766701416135</t>
+          <t>13.6476656425002198</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>127343000.2173266557021733</t>
+          <t>126540504.6246521854720086</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.8089673300476612</t>
+          <t>1.1223525323797777</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>13.6072242169819494</t>
+          <t>13.6122151709565612</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="16">
@@ -1009,26 +1009,26 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>9.6036975170578269</t>
+          <t>9.6039881646914644</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4803401.8501467731925831</t>
+          <t>4810508.7339042312507542</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.2485938492213905</t>
+          <t>0.2886441149277279</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>9.5399946069190810</t>
+          <t>9.5403695804025794</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="17">
@@ -1049,26 +1049,26 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.2692760848567299</t>
+          <t>0.2694724358695287</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>48056494.4226127537360642</t>
+          <t>48242342.1152208425165959</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.3958855702636047</t>
+          <t>1.5006890110047166</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.2682149341125536</t>
+          <t>0.2684348841122614</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="18">
@@ -1089,26 +1089,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>19.2207949751910327</t>
+          <t>19.2653108625469041</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>118493898.7587431327550139</t>
+          <t>118897745.6813084345326626</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-3.1819056716832420</t>
+          <t>-2.9044540956503010</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19.5221445153987295</t>
+          <t>19.4972809509271186</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="19">
@@ -1129,26 +1129,26 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.3677460030136415</t>
+          <t>2.3715834715937131</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>523267923.8588717698574329</t>
+          <t>524339592.9475637743247231</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.8916846880729167</t>
+          <t>4.1868446800993669</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.3634653447219478</t>
+          <t>2.3653152034463642</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="20">
@@ -1169,26 +1169,26 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.0000125563676911</t>
+          <t>0.0000125794394523</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>66746027.4177632005186307</t>
+          <t>66840713.9505673332621054</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-0.3285391408749847</t>
+          <t>-0.2454300059626578</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0000126204515749</t>
+          <t>0.0000126198953745</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="21">
@@ -1209,26 +1209,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.1707385030999834</t>
+          <t>0.1709610606247602</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>72530990.1723071204237280</t>
+          <t>72366710.8891387591110981</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.9004175680069230</t>
+          <t>0.7944873219921624</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.1714253891323879</t>
+          <t>0.1715412438448525</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="22">
@@ -1249,26 +1249,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>86.3250924408412675</t>
+          <t>86.3853835825279086</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>152449381.9062380666913037</t>
+          <t>151680343.9018264926741559</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.0692790344763196</t>
+          <t>1.1453841547302622</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>85.8598382874845881</t>
+          <t>85.8950465754468879</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="23">
@@ -1285,26 +1285,26 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.0917133336128293</t>
+          <t>4.1004929911335035</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>64995038.9283635314798835</t>
+          <t>65207913.0355031587340651</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.7655898433175277</t>
+          <t>1.0566782410823703</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>4.0852526394472472</t>
+          <t>4.0855383358222546</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="24">
@@ -1321,22 +1321,22 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1819.4319988901549775</t>
+          <t>1819.2406173307875905</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>8088748.7562500001431572</t>
+          <t>8084525.0166666662752511</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-0.2459166363669385</t>
+          <t>-0.2476023654848287</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="25">
@@ -1357,26 +1357,26 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6.2659100515826167</t>
+          <t>6.2699158462617503</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>33493719.1276047662143918</t>
+          <t>33448889.4983663504710140</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.2855341780067822</t>
+          <t>0.5536950603107917</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6.2216746969693391</t>
+          <t>6.2208075321745470</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="26">
@@ -1397,26 +1397,26 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>303.3784828228326383</t>
+          <t>303.8929586969943791</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>40198550.1483949965109614</t>
+          <t>40840706.4935694634805021</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.1311852222278608</t>
+          <t>0.5132070457444577</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>304.6748856736965572</t>
+          <t>304.7139250436769518</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="27">
@@ -1433,22 +1433,22 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4.5681129986061030</t>
+          <t>4.5682497910218422</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>67815971.9798920045292426</t>
+          <t>67146784.3022070729643934</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-0.7814571333870057</t>
+          <t>-0.7622214144252912</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="28">
@@ -1465,26 +1465,26 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.9997384926459668</t>
+          <t>0.9998545668149860</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>56060096.5772389049185444</t>
+          <t>56039650.7199412398852815</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.0684516764876065</t>
+          <t>0.0811486901188504</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.9994441698062070</t>
+          <t>0.9994604056215556</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="29">
@@ -1501,22 +1501,22 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.0000223435263763</t>
+          <t>1.0000393785591883</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>28173942.8783287607303762</t>
+          <t>28905968.4831256010673851</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.0387886411593920</t>
+          <t>0.0284599143268554</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="30">
@@ -1537,22 +1537,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.7720886207575817</t>
+          <t>0.7732267962466041</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>85140186.2176361111757082</t>
+          <t>85324025.1970592718276434</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-4.6202171898941902</t>
+          <t>-4.4744576246037692</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="31">
@@ -1573,26 +1573,26 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12.6778141852686785</t>
+          <t>12.6895386489692982</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>16381054.6406006159522365</t>
+          <t>16335899.8803100632374246</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-0.9540186767550871</t>
+          <t>-1.2508622647390257</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12.6667666383796467</t>
+          <t>12.6620661176525367</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="32">
@@ -1609,26 +1609,26 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>216.9142151453673896</t>
+          <t>217.1369139952093219</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>29483511.1379636265421097</t>
+          <t>29658756.0723905313132113</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.4190658954658581</t>
+          <t>1.7031686680475666</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>216.1829491143301462</t>
+          <t>216.3557465248735195</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="33">
@@ -1645,26 +1645,26 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5.9583367682970804</t>
+          <t>5.9707485596232859</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>39387583.0790072951435306</t>
+          <t>39387509.1314725576344581</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.4524776360392461</t>
+          <t>0.6755184647686651</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>5.9726785269465495</t>
+          <t>5.9732306149136744</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="34">
@@ -1681,26 +1681,26 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5.3700113318458466</t>
+          <t>5.3761223834760108</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>39151839.3709379637696644</t>
+          <t>39045032.8963454030588848</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.5186237213487238</t>
+          <t>3.7191686200787432</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>5.2630178513897298</t>
+          <t>5.2710266541630569</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="35">
@@ -1717,26 +1717,26 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.6365941406364706</t>
+          <t>2.6458269001777343</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>93769595.6065129388523226</t>
+          <t>94372482.6971327126599334</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3.9020762877010692</t>
+          <t>4.2943883162555014</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2.6430199712880010</t>
+          <t>2.6446198956527197</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="36">
@@ -1757,26 +1757,26 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.0000070620128147</t>
+          <t>0.0000070689112066</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>293124002.7892667422708149</t>
+          <t>293202495.8599503843554825</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-1.7151985489490831</t>
+          <t>-1.6858940818562461</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0000071289588759</t>
+          <t>0.0000071220496552</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="37">
@@ -1793,26 +1793,26 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>48.4556999813597985</t>
+          <t>48.4194852752819739</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1892286.1632043386376873</t>
+          <t>1891567.5333188289658006</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.3954752162795330</t>
+          <t>0.3710225429166277</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>48.4177190707576101</t>
+          <t>48.4178125713827249</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="38">
@@ -1833,26 +1833,26 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.1049841987191013</t>
+          <t>0.1052800169783690</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>42407317.7907458436023987</t>
+          <t>42558888.1524060532632192</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4.8864392065793577</t>
+          <t>5.0175264521918871</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.1052868202110110</t>
+          <t>0.1053362722412948</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="39">
@@ -1873,98 +1873,98 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.7923814638305716</t>
+          <t>0.7929341723957728</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>59334727.5187505977239135</t>
+          <t>59451730.6134839602570197</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-1.2799322962954254</t>
+          <t>-1.3165212515854354</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.8067489382076848</t>
+          <t>0.8062418143289097</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>internet-computer</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FDUSD</t>
+          <t>ICP</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.9982226980448161</t>
+          <t>5.3602746794278190</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>873485697.5631510120362890</t>
+          <t>29953830.6836900180575520</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-0.0513171732011543</t>
+          <t>0.5558203395464523</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.9985858621714304</t>
+          <t>5.3582383013889731</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>internet-computer</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ICP</t>
+          <t>FDUSD</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5.3560186211073823</t>
+          <t>0.9981423496224365</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>29953887.8876887618785226</t>
+          <t>868389933.0918235573069692</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.3059181030360783</t>
+          <t>-0.0511699295400844</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>5.3577959542649658</t>
+          <t>0.9981270091527033</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="42">
@@ -1981,26 +1981,26 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.8015622929925860</t>
+          <t>0.8030236351714761</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>74422963.5435014039149676</t>
+          <t>74670341.4620100727813867</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.9019816769209038</t>
+          <t>1.1345682941149042</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.7992064206792425</t>
+          <t>0.7993976751103486</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="43">
@@ -2021,26 +2021,26 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>16.6654186833011380</t>
+          <t>16.6486311282574543</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>22548585.6804606441936586</t>
+          <t>22675359.0339694392344875</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.4574952869183328</t>
+          <t>0.6334265588766031</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>16.6755819626368201</t>
+          <t>16.6735745115257237</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="44">
@@ -2057,26 +2057,26 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>165.3451761030172454</t>
+          <t>165.8058197854711423</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>121736746.8274383543940574</t>
+          <t>121158203.7110956398054205</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-1.7725905166855250</t>
+          <t>-1.5121748719392549</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>166.5432984205594735</t>
+          <t>166.4288144080013377</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="45">
@@ -2093,26 +2093,26 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.2048238149194853</t>
+          <t>0.2052065062406928</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>29753865.7684062830469994</t>
+          <t>29699721.9408520332091511</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2.0138629420681554</t>
+          <t>2.3144038721154221</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.2032011224463736</t>
+          <t>0.2033455771216895</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="46">
@@ -2133,26 +2133,26 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>10.2151380314606083</t>
+          <t>10.2187870893698504</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>63099908.4252861921509914</t>
+          <t>63012161.6371609577954762</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1.7231984307823092</t>
+          <t>1.8075082998377992</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10.1229342006681727</t>
+          <t>10.1318337346275653</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="47">
@@ -2169,26 +2169,26 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.3729213287187082</t>
+          <t>0.3734755181058095</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>67764752.3154173469315915</t>
+          <t>67914321.7716623383926855</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1.1708623663664272</t>
+          <t>1.1859247625275085</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.3667955159450927</t>
+          <t>0.3668450345000519</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="48">
@@ -2209,26 +2209,26 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.0227623520427389</t>
+          <t>0.0228017050485719</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>18599139.1132353650490500</t>
+          <t>18629481.1433605644855890</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.0607612811592081</t>
+          <t>0.5150139617779848</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.0229385402688767</t>
+          <t>0.0229428379613368</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="49">
@@ -2249,26 +2249,26 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>228.9810104689460820</t>
+          <t>229.6882105493986732</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>47035804.0061671600730959</t>
+          <t>46406660.8190885746877611</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.4535633662372402</t>
+          <t>0.2282403527470067</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>229.1096893257285970</t>
+          <t>229.1538869533195157</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="50">
@@ -2285,26 +2285,26 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>22.3201007138547657</t>
+          <t>22.3398144993427112</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5779605.5943924387426562</t>
+          <t>5788947.7322156602417288</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.2999245260771432</t>
+          <t>0.4061115203931678</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>22.3944891978739027</t>
+          <t>22.3955813209491322</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="51">
@@ -2321,26 +2321,26 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3.2878555132257994</t>
+          <t>3.2915113021699981</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>29441358.0594600908854448</t>
+          <t>29436573.1350510554548689</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3.9417278124400859</t>
+          <t>3.9617395933837613</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>3.2591716937578748</t>
+          <t>3.2646917573646775</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="52">
@@ -2361,26 +2361,26 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3.5216813913955795</t>
+          <t>3.5341257816944372</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>41610389.1068758081250314</t>
+          <t>41878757.4464811255003354</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-0.4480737768579574</t>
+          <t>-0.0047057772223307</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>3.5195395914827009</t>
+          <t>3.5180997095937704</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="53">
@@ -2397,26 +2397,26 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2.7738304204229006</t>
+          <t>2.7769514630179134</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>47172355.6734509989690824</t>
+          <t>47300983.9308438848192320</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1.5542248682448293</t>
+          <t>1.6424405580939327</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2.7502121113940539</t>
+          <t>2.7510559967487288</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="54">
@@ -2433,26 +2433,26 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4.3083767810627775</t>
+          <t>4.3155789522937679</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>42849736.1099549332144257</t>
+          <t>42938439.4111218408604520</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.2911445160773765</t>
+          <t>0.6140060868897444</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>4.2846138804206856</t>
+          <t>4.2848107899340939</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="55">
@@ -2473,26 +2473,26 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.0643158512220787</t>
+          <t>0.0644668520678912</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>33219875.4178673293359377</t>
+          <t>33291440.4753274302483704</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2.3546744773013661</t>
+          <t>2.2938456266575514</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.0647221696596319</t>
+          <t>0.0647827366234392</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="56">
@@ -2513,26 +2513,26 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.1817221541387811</t>
+          <t>0.1820032730655277</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>26187451.4052996308710397</t>
+          <t>26261152.0535042777599242</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>-0.1823212966458643</t>
+          <t>0.0012023716573866</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.1833944132702904</t>
+          <t>0.1833981648223011</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="57">
@@ -2549,26 +2549,26 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.3345005207937254</t>
+          <t>0.3351099573259959</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>52483961.4420920948304700</t>
+          <t>52649310.3198582177810556</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1.2357980194365292</t>
+          <t>1.4089376116703826</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.3328186793963527</t>
+          <t>0.3329561775554554</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="58">
@@ -2585,26 +2585,26 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>17.5448250270189833</t>
+          <t>17.5450784127174201</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>6039360.5103362689241935</t>
+          <t>6024614.2243307587455224</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>-0.6719232006818787</t>
+          <t>-0.7301458205129890</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>17.6072648176085398</t>
+          <t>17.6072354503262925</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="59">
@@ -2625,26 +2625,26 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.5004226806498550</t>
+          <t>0.5016961922795378</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>69507454.6160513006162223</t>
+          <t>69961352.4038071328457423</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2.9765675915225626</t>
+          <t>2.7516662056286184</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.4910468776486858</t>
+          <t>0.4916392583513938</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="60">
@@ -2661,26 +2661,26 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5.2780077835532974</t>
+          <t>5.2855700128201552</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>35754150.9048518233431641</t>
+          <t>35726625.2057730489789272</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>-0.8321805750442154</t>
+          <t>-0.8162029802605712</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>5.3202992200440066</t>
+          <t>5.3184843352990766</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="61">
@@ -2701,26 +2701,26 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>11.0883873743447377</t>
+          <t>11.0889934019870073</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>428344.1711923759584146</t>
+          <t>428749.4086693298504737</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.5760677231937108</t>
+          <t>0.4835362915814315</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>11.0751549283705362</t>
+          <t>11.0754407970238027</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="62">
@@ -2741,26 +2741,26 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.4861826290348447</t>
+          <t>0.4873507367731436</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>31195894.5899081827663922</t>
+          <t>31178267.6898823449769217</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>5.5870234299110543</t>
+          <t>5.5723764471883070</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.4788991699600357</t>
+          <t>0.4799571468436546</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="63">
@@ -2777,26 +2777,26 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.7554080657487611</t>
+          <t>0.7569300524354673</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>50579379.2002234010446696</t>
+          <t>50726490.3408559812011848</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>-1.5815992233355388</t>
+          <t>-1.3075779647283040</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.7613533311287086</t>
+          <t>0.7606401781332320</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="64">
@@ -2817,26 +2817,26 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.4758865359415437</t>
+          <t>0.4771634515297247</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>51776683.9788372120893112</t>
+          <t>51970838.5033055227028690</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1.6657117545577080</t>
+          <t>2.0261258404279521</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.4728461072435460</t>
+          <t>0.4731253256999419</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="65">
@@ -2857,26 +2857,26 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1274.4636925391973473</t>
+          <t>1277.8835969503892071</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>24651266.2097998962140243</t>
+          <t>24821833.8165320025226099</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>-2.6432692389765054</t>
+          <t>-2.3563313609625416</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1296.6654954362469886</t>
+          <t>1293.0421301947438959</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="66">
@@ -2897,26 +2897,26 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.4332356354046108</t>
+          <t>0.4348792647513155</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>42214189.7376783664922737</t>
+          <t>42363835.1469279594119031</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>-2.5425459043061331</t>
+          <t>-2.5457742570267453</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.4472967803066455</t>
+          <t>0.4467783804775426</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="67">
@@ -2933,26 +2933,26 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.0668413305061664</t>
+          <t>0.0668625180513671</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>8174744.2614683774641083</t>
+          <t>8205801.1028391609102132</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>-1.8694887462597167</t>
+          <t>-1.8680239168657243</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.0676219798563000</t>
+          <t>0.0675333397869372</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="68">
@@ -2973,26 +2973,26 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.5444217237545650</t>
+          <t>0.5443069795798227</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>9113997.3973329651846695</t>
+          <t>9130288.7088932122511410</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>-0.2628126707429154</t>
+          <t>-0.1867011166812788</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.5499373486670961</t>
+          <t>0.5496917541088888</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="69">
@@ -3009,26 +3009,26 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.7875320359885018</t>
+          <t>0.7891523637542934</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>58106757.9307331695864272</t>
+          <t>58323126.3876530679473321</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1.5592600444157856</t>
+          <t>1.6202273520265450</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.7850781184311289</t>
+          <t>0.7853673363071660</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="70">
@@ -3049,26 +3049,26 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.6260389461593980</t>
+          <t>0.6276748653902691</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>12830259.7133575488821977</t>
+          <t>12850981.4572102950465367</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0.3520950395419311</t>
+          <t>0.8690354315065516</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.6187748747585722</t>
+          <t>0.6187259611593025</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="71">
@@ -3089,26 +3089,26 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.5938464843289947</t>
+          <t>0.5942827620267753</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>137794182.2510148546485712</t>
+          <t>137928056.3355700533892776</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>7.8356742863510676</t>
+          <t>7.9948121210871439</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.5905254766448291</t>
+          <t>0.5909263461151560</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="72">
@@ -3135,12 +3135,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>-0.0412787913723392</t>
+          <t>-0.0437967857502329</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="73">
@@ -3157,26 +3157,26 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.0000114214337044</t>
+          <t>0.0000114456422276</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>39697530.0950368393578663</t>
+          <t>39877244.6856092719498257</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1.6017145127065166</t>
+          <t>1.8658887951124598</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.0000113530216234</t>
+          <t>0.0000113577179360</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="74">
@@ -3197,22 +3197,22 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2.3058262003748224</t>
+          <t>2.3117665021917433</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3929166.6986101736853574</t>
+          <t>3940362.8191875655130852</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>4.7938621326913842</t>
+          <t>5.1389146807053702</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="75">
@@ -3229,26 +3229,26 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.0900549160427776</t>
+          <t>0.0902004831032584</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>6880349.0705871056534606</t>
+          <t>6852152.3960048324125405</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1.7945693397404667</t>
+          <t>2.2819502190419089</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0.0894050417031447</t>
+          <t>0.0894596339003760</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="76">
@@ -3265,26 +3265,26 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.1791469011108969</t>
+          <t>0.1795141173650863</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>31105394.4142914264253163</t>
+          <t>31264594.4284945127554423</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0.6821100066324752</t>
+          <t>0.7806243798684325</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.1789644019974375</t>
+          <t>0.1790127169461673</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="77">
@@ -3305,26 +3305,26 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>8.8285134132284844</t>
+          <t>8.8455844771411482</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>46127859.3840363062726192</t>
+          <t>46204096.0069090922282742</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1.0539296652426328</t>
+          <t>1.3664865658034554</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>8.7864190615826733</t>
+          <t>8.7934507703710551</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="78">
@@ -3345,26 +3345,26 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>69.7622294192880909</t>
+          <t>69.8403806458395623</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>8570183.6955206406358085</t>
+          <t>8580615.0454394374050595</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1.5612559842257071</t>
+          <t>1.8361118606789153</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>69.5959777940008358</t>
+          <t>69.6649863589389351</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="79">
@@ -3385,26 +3385,26 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.8236780605475428</t>
+          <t>0.8250902554090631</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>9118342.5562565025559040</t>
+          <t>9150545.1326098777901670</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>-0.5359946867989800</t>
+          <t>-0.3223483316953380</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0.8302442045829244</t>
+          <t>0.8296908215157212</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="80">
@@ -3421,26 +3421,26 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.0133947292482760</t>
+          <t>0.0133765053946175</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>8899582.8361347553898263</t>
+          <t>8916528.8336567525839959</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>-0.5780801669154456</t>
+          <t>-0.4687596962762880</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.0134336878945874</t>
+          <t>0.0134568020841853</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="81">
@@ -3457,26 +3457,26 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.9986096346698130</t>
+          <t>0.9986191324599388</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>7766737.7580430460935742</t>
+          <t>7767613.3753405751944598</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0.0451139468396770</t>
+          <t>0.0457811745326145</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.9984528844538174</t>
+          <t>0.9984507325612567</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="82">
@@ -3493,26 +3493,26 @@
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>7.3381550126151212</t>
+          <t>7.3700594743303074</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>87499169.8763218282185997</t>
+          <t>88079938.1624017367126109</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>-5.2269563987730112</t>
+          <t>-4.7034308815679998</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>7.4692173199799842</t>
+          <t>7.4568757377448312</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="83">
@@ -3529,26 +3529,26 @@
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.8702522327944304</t>
+          <t>0.8709029136527639</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>26765928.8534443244708133</t>
+          <t>26585468.3217983309878982</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>-0.0686874201098381</t>
+          <t>-0.0611823226060997</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.8686897768444410</t>
+          <t>0.8683877792521563</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="84">
@@ -3565,26 +3565,26 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>3110.6533419312776475</t>
+          <t>3112.0994657711574893</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>5671308.6126342522331065</t>
+          <t>5665416.5340699813928797</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>-0.1033796854324168</t>
+          <t>-0.0985896384745402</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>3102.1113052117993358</t>
+          <t>3101.3707950215277841</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="85">
@@ -3601,26 +3601,26 @@
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1.0719726739054031</t>
+          <t>1.0720738272189429</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3008086.0254431060686238</t>
+          <t>3009027.2267621213127244</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>-0.4096824416545598</t>
+          <t>-0.3644110207939468</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1.0754648283495225</t>
+          <t>1.0752977893246054</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="86">
@@ -3637,26 +3637,26 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2.2152160833975362</t>
+          <t>2.2206249263348156</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>13430493.4120611782558072</t>
+          <t>13438681.4114001379053115</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2.9083403595487034</t>
+          <t>2.8823322321536347</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2.1847028308031253</t>
+          <t>2.1895671607450513</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="87">
@@ -3677,26 +3677,26 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.0155404070987683</t>
+          <t>0.0155867533418159</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>28174138.6535680303677203</t>
+          <t>28214455.6147880194954554</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>3.5662073476538781</t>
+          <t>3.7895790928314426</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0.0154328503663102</t>
+          <t>0.0154614354430189</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="88">
@@ -3713,26 +3713,26 @@
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.6545863331690414</t>
+          <t>0.6553397387174199</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>4625988.2994441442428015</t>
+          <t>4594132.2849918644839763</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>-0.0339107676627609</t>
+          <t>0.2383523717431396</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0.6546292767800348</t>
+          <t>0.6547139980460938</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="89">
@@ -3749,26 +3749,26 @@
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.2715519147686613</t>
+          <t>0.2718787918305082</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>11669290.1879492782682715</t>
+          <t>11697732.2677569289089691</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1.6203834604969798</t>
+          <t>1.7296246971538369</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0.2709836052314141</t>
+          <t>0.2711383001115169</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="90">
@@ -3785,26 +3785,26 @@
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.0000006745132710</t>
+          <t>0.0000006735891265</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>868495.9620615237787550</t>
+          <t>866759.9399415633490092</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0.0731058347261706</t>
+          <t>-0.0312148993952195</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.0000006755091103</t>
+          <t>0.0000006754592101</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="91">
@@ -3821,26 +3821,26 @@
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>3127.3512476068518462</t>
+          <t>3128.1813141996282849</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>43585587.8894359584595505</t>
+          <t>43580887.0316971563718593</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0.5126829493593221</t>
+          <t>0.6020036812845043</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>3122.1847270160477491</t>
+          <t>3123.0488678173535974</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="92">
@@ -3857,26 +3857,26 @@
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0.1731135996800493</t>
+          <t>0.1732474244957229</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>8402324.3017096057937614</t>
+          <t>8381385.3124557896662407</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1.0508623849287444</t>
+          <t>1.2427770178238460</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0.1733588274375190</t>
+          <t>0.1733952818441017</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="93">
@@ -3893,26 +3893,26 @@
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>31.9848054000546281</t>
+          <t>32.0050867683521801</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>6289133.1045184221306940</t>
+          <t>6289934.9106722600451384</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2.3130520485473293</t>
+          <t>2.4047543256910594</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>31.9120204550091855</t>
+          <t>31.9301772101136709</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="94">
@@ -3933,26 +3933,26 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0.4794280003176883</t>
+          <t>0.4817161325707116</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>36098765.4550325365123296</t>
+          <t>36269525.4801441155442230</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>-0.9122635749065849</t>
+          <t>-0.9146228402189618</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0.4823501414497256</t>
+          <t>0.4823167015160085</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="95">
@@ -3969,26 +3969,26 @@
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.1031772229140968</t>
+          <t>0.1035866006457398</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3905758.6575596325297607</t>
+          <t>3904182.0370301496324040</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1.2404690343101225</t>
+          <t>1.6406117217702562</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0.1031359067550185</t>
+          <t>0.1031842549244072</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="96">
@@ -4005,26 +4005,26 @@
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.3840808886382666</t>
+          <t>0.3845294169799987</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>7322659.8909191019537538</t>
+          <t>7361446.8982467566311617</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1.5962620526860769</t>
+          <t>1.8262768030850598</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.3824434500533655</t>
+          <t>0.3827218753583948</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="97">
@@ -4045,26 +4045,26 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1.9986832673526854</t>
+          <t>2.0017824259595451</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>38814305.7279621063202662</t>
+          <t>38962922.1062806904586452</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0.9145199297703079</t>
+          <t>0.8378996939706946</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2.0078668556112535</t>
+          <t>2.0087839350450721</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="98">
@@ -4085,26 +4085,26 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>3.2320321030784411</t>
+          <t>3.2492216041510443</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>4344333.3046030776490347</t>
+          <t>4369255.5231141701457097</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>4.2595674482531478</t>
+          <t>4.3736593599935697</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>3.2202984606747311</t>
+          <t>3.2219845269735515</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="99">
@@ -4125,26 +4125,26 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>36.3808141247237805</t>
+          <t>36.4394110453019497</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>7250480.9315876974521080</t>
+          <t>7281308.6520834133244572</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1.6159434721833690</t>
+          <t>2.0131136871036532</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>36.0910180312829565</t>
+          <t>36.1072817616090704</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="100">
@@ -4165,26 +4165,26 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>15.9786101234306466</t>
+          <t>15.9895094615341476</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>22229840.7220505726463294</t>
+          <t>22275579.4299545932147549</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1.4849730655537068</t>
+          <t>1.6880833217139621</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>15.9097330924115601</t>
+          <t>15.9153295850566025</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
     <row r="101">
@@ -4205,26 +4205,26 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.0000586323215316</t>
+          <t>0.0000588117947951</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>38723854.6758202467034459</t>
+          <t>38820718.3453382972285526</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1.3611219601125127</t>
+          <t>1.8759618715185514</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0.0000581594769755</t>
+          <t>0.0000581744515543</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>1743361182106</v>
+        <v>1743361553535</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/cleaned_data/cleaned_data_symbol.xlsx
+++ b/src/static/cleaned_data/cleaned_data_symbol.xlsx
@@ -493,26 +493,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82704.8538490923053636</t>
+          <t>82679.4166252466498760</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5481135534.0580898928877092</t>
+          <t>8513772398.2362256980061839</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.4735418379954891</t>
+          <t>-0.6894597954155940</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>82865.4301975738748998</t>
+          <t>83662.2339597589667757</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="3">
@@ -529,26 +529,26 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1826.1841689206343992</t>
+          <t>1783.7967633021638067</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4175180210.7943098475887076</t>
+          <t>4763992153.6949347452918024</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.4008498122672161</t>
+          <t>-0.8931995113489224</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1822.5464876923115440</t>
+          <t>1806.5639674656228154</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="4">
@@ -565,26 +565,26 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.0028028724239883</t>
+          <t>1.0004956399886694</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>16889414674.7189513373069233</t>
+          <t>20656337512.6898570076240130</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.0384470409738277</t>
+          <t>0.0793197027716143</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0002822876053214</t>
+          <t>0.9996071452478294</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="5">
@@ -605,26 +605,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.1607317494573460</t>
+          <t>2.1253799016552612</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1135251352.9092981969984035</t>
+          <t>1162300559.7878099685008242</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.6874075688239753</t>
+          <t>-0.2080418480644683</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.1582413351714459</t>
+          <t>2.1327802981248607</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="6">
@@ -645,26 +645,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>604.7916261043849145</t>
+          <t>592.5424291475596266</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>229928302.6426411631625929</t>
+          <t>229301763.6614661380635712</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.1636104082446619</t>
+          <t>-0.4396357085324256</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>605.3684300075688819</t>
+          <t>595.9240056839870449</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="7">
@@ -681,26 +681,26 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>126.2314166858194739</t>
+          <t>117.8278786920170334</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>953154026.3852152837637849</t>
+          <t>1860231056.5606473097828897</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.1080568048974445</t>
+          <t>-1.2323337423488552</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>124.9012036470155358</t>
+          <t>121.0473337320652560</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="8">
@@ -717,26 +717,26 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.9999719303313459</t>
+          <t>1.0006294663864772</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2637758779.9406141599200162</t>
+          <t>4122822778.0595696403923047</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.0169607808786054</t>
+          <t>0.0679581576485007</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.0014927744932953</t>
+          <t>1.0000361824808921</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="9">
@@ -753,26 +753,26 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.1705130131247783</t>
+          <t>0.1676097004720601</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>408594154.5396917389095039</t>
+          <t>623195572.9593829573788789</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.3074862421276879</t>
+          <t>-0.6455314304213677</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1695868704628094</t>
+          <t>0.1696651603321594</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="10">
@@ -793,26 +793,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.6722580218902258</t>
+          <t>0.6482070630742234</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>226038813.7367630240289191</t>
+          <t>227927980.3011178974050801</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.5486569237491160</t>
+          <t>-1.5649538760188891</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.6732855680187255</t>
+          <t>0.6584493018692923</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="11">
@@ -829,26 +829,26 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.2322688876859461</t>
+          <t>0.2378329415495477</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>208148562.0900334259472639</t>
+          <t>176642643.8344767791868480</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-0.9697758923119343</t>
+          <t>-0.8830793462752332</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2315697321919429</t>
+          <t>0.2380715909542628</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="12">
@@ -865,26 +865,26 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1810.9922054882756851</t>
+          <t>1788.2379062099615490</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4986223.6021952405444151</t>
+          <t>4216204.6050380796506072</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-0.3024847172370749</t>
+          <t>-0.9321105963508119</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1821.6633295307420998</t>
+          <t>1801.2048968583579830</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="13">
@@ -901,134 +901,134 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>82585.9957241520785385</t>
+          <t>82558.3015553419181943</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>14141420.4807653262454303</t>
+          <t>182777986.7465205508734214</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.7056720712428559</t>
+          <t>-0.6268537507704208</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>82965.3492143456395151</t>
+          <t>83517.5575144928006460</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>toncoin</t>
+          <t>chainlink</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TON</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.8813204652848511</t>
+          <t>12.6335946049377166</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>120415195.6230400166611299</t>
+          <t>151668202.0974177161776610</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.9488938028714850</t>
+          <t>-1.1642963395301786</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3.7812164708104158</t>
+          <t>12.8758232953477405</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>unus-sed-leo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LINK</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13.6476656425002198</t>
+          <t>8.9710194204059666</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>126540504.6246521854720086</t>
+          <t>3845428.6804465615551297</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.1223525323797777</t>
+          <t>-5.2916620412428099</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>13.6122151709565612</t>
+          <t>8.9346876588081552</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>unus-sed-leo</t>
+          <t>toncoin</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>9.6039881646914644</t>
+          <t>3.2383852909064678</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4810508.7339042312507542</t>
+          <t>83505107.1814736179075013</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.2886441149277279</t>
+          <t>-5.0471288846660455</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>9.5403695804025794</t>
+          <t>3.3415718095478397</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="17">
@@ -1049,26 +1049,26 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.2694724358695287</t>
+          <t>0.2514798767386432</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>48242342.1152208425165959</t>
+          <t>66971367.1159570357421341</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.5006890110047166</t>
+          <t>-2.7429977853747760</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.2684348841122614</t>
+          <t>0.2576783574574168</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="18">
@@ -1089,26 +1089,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>19.2653108625469041</t>
+          <t>17.8710800366727270</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>118897745.6813084345326626</t>
+          <t>96981960.0624973036218827</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-2.9044540956503010</t>
+          <t>-1.0037454457170638</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19.4972809509271186</t>
+          <t>18.0989385854654146</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="19">
@@ -1129,26 +1129,26 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.3715834715937131</t>
+          <t>2.2012923133045919</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>524339592.9475637743247231</t>
+          <t>425654201.0593812944647326</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.1868446800993669</t>
+          <t>-1.9112656389211816</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.3653152034463642</t>
+          <t>2.2500401590298482</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="20">
@@ -1169,26 +1169,26 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.0000125794394523</t>
+          <t>0.0000121293740173</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>66840713.9505673332621054</t>
+          <t>56112559.2866800257614546</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-0.2454300059626578</t>
+          <t>-0.9313415359203170</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0000126198953745</t>
+          <t>0.0000122630618028</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="21">
@@ -1209,26 +1209,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.1709610606247602</t>
+          <t>0.1604273749400004</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>72366710.8891387591110981</t>
+          <t>67447014.0931620435040454</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.7944873219921624</t>
+          <t>-3.2792116020538739</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.1715412438448525</t>
+          <t>0.1630219999438559</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="22">
@@ -1249,62 +1249,66 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>86.3853835825279086</t>
+          <t>82.2490027492128535</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>151680343.9018264926741559</t>
+          <t>142683014.0133622547442030</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.1453841547302622</t>
+          <t>-2.6561550034615070</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>85.8950465754468879</t>
+          <t>83.9784421256033139</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>mantra-dao</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DOT</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>OM</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>888888888.0000000000000000</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.1004929911335035</t>
+          <t>6.2482729571285509</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>65207913.0355031587340651</t>
+          <t>21351668.0751213110497677</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.0566782410823703</t>
+          <t>-0.9263191135812111</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>4.0855383358222546</t>
+          <t>6.2449777445248738</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="24">
@@ -1321,62 +1325,58 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1819.2406173307875905</t>
+          <t>1788.7222487527824865</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>8084525.0166666662752511</t>
+          <t>304266013.3694966039128787</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-0.2476023654848287</t>
+          <t>-1.0808308788707647</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>mantra-dao</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>OM</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>888888888.0000000000000000</t>
-        </is>
-      </c>
+          <t>DOT</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6.2699158462617503</t>
+          <t>3.9136656026092766</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>33448889.4983663504710140</t>
+          <t>74264410.7232599010915448</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.5536950603107917</t>
+          <t>-3.8540030885837536</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6.2208075321745470</t>
+          <t>4.0129549735235107</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="26">
@@ -1397,58 +1397,58 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>303.8929586969943791</t>
+          <t>297.7640581399971288</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>40840706.4935694634805021</t>
+          <t>50326305.1462755569086613</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.5132070457444577</t>
+          <t>-0.5181835646455871</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>304.7139250436769518</t>
+          <t>300.7245773738850196</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>bitget-token-new</t>
+          <t>bitcoin-bep2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BGB</t>
+          <t>BTCB</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4.5682497910218422</t>
+          <t>82702.1232680076823405</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>67146784.3022070729643934</t>
+          <t>2488513.6264652270180566</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-0.7622214144252912</t>
+          <t>-0.7354378380572122</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="28">
@@ -1465,134 +1465,130 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.9998545668149860</t>
+          <t>0.9998088288850279</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>56039650.7199412398852815</t>
+          <t>48910932.9986060288580001</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.0811486901188504</t>
+          <t>0.0120848213613963</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.9994604056215556</t>
+          <t>1.0000866090013973</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ethena-usde</t>
+          <t>bitget-token-new</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>USDE</t>
+          <t>BGB</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.0000393785591883</t>
+          <t>4.4281307604661809</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>28905968.4831256010673851</t>
+          <t>34391266.2739030963861910</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.0284599143268554</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>-2.6092298816981547</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>4.4579887731529854</t>
+        </is>
+      </c>
       <c r="H29" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>ethena-usde</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PI</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>100000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>USDE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.7732267962466041</t>
+          <t>0.9990026248256170</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>85324025.1970592718276434</t>
+          <t>38483826.8086545870000039</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-4.4744576246037692</t>
+          <t>-0.0447060327997902</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>hyperliquid</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HYPE</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1000000000.0000000000000000</t>
+          <t>100000000000.0000000000000000</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12.6895386489692982</t>
+          <t>0.6253500535808418</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>16335899.8803100632374246</t>
+          <t>616324361.6737209107417884</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-1.2508622647390257</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>12.6620661176525367</t>
-        </is>
-      </c>
+          <t>19.3654518868140613</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="32">
@@ -1609,134 +1605,138 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>217.1369139952093219</t>
+          <t>216.2902177506933976</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>29658756.0723905313132113</t>
+          <t>35545814.2764526740875391</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.7031686680475666</t>
+          <t>0.0806077881745245</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>216.3557465248735195</t>
+          <t>216.4991796694003989</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>uniswap</t>
+          <t>hyperliquid</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>UNI</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>HYPE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5.9707485596232859</t>
+          <t>11.5793767814389149</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>39387509.1314725576344581</t>
+          <t>19449675.5633898698230748</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.6755184647686651</t>
+          <t>0.3249085780824038</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>5.9732306149136744</t>
+          <t>11.8771045558450088</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>aptos</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>APT</t>
+          <t>UNI</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5.3761223834760108</t>
+          <t>5.7996037455663912</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>39045032.8963454030588848</t>
+          <t>51979416.8548957890451487</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.7191686200787432</t>
+          <t>-0.9393903887736709</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>5.2710266541630569</t>
+          <t>5.8790131625235924</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>near-protocol</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NEAR</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.6458269001777343</t>
+          <t>50.7531888734929254</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>94372482.6971327126599334</t>
+          <t>9930430.7324586600436322</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4.2943883162555014</t>
+          <t>4.9092499868615300</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2.6446198956527197</t>
+          <t>50.4504018302410376</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="36">
@@ -1757,290 +1757,290 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.0000070689112066</t>
+          <t>0.0000069941160924</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>293202495.8599503843554825</t>
+          <t>397979808.5868431217432803</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-1.6858940818562461</t>
+          <t>-1.6174805383238296</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0000071220496552</t>
+          <t>0.0000071667775663</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>near-protocol</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>NEAR</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>48.4194852752819739</t>
+          <t>2.4329972919395023</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1891567.5333188289658006</t>
+          <t>66838487.1917548368088475</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.3710225429166277</t>
+          <t>-1.6984201561886573</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>48.4178125713827249</t>
+          <t>2.4785149075263058</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>crypto-com-coin</t>
+          <t>aptos</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CRO</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>30263013692.0000000000000000</t>
-        </is>
-      </c>
+          <t>APT</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.1052800169783690</t>
+          <t>4.8074455142703557</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>42558888.1524060532632192</t>
+          <t>52222148.0681732637715204</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>5.0175264521918871</t>
+          <t>-0.9270776434674883</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.1053362722412948</t>
+          <t>4.8654872609370834</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MNT</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>6219316795.0000000000000000</t>
-        </is>
-      </c>
+          <t>ONDO</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.7929341723957728</t>
+          <t>0.8032923509355095</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>59451730.6134839602570197</t>
+          <t>86411993.9951881624986051</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-1.3165212515854354</t>
+          <t>-2.1448411906732961</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.8062418143289097</t>
+          <t>0.8145565800157639</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>internet-computer</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ICP</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>MNT</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>6219316795.0000000000000000</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5.3602746794278190</t>
+          <t>0.7347734907996874</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>29953830.6836900180575520</t>
+          <t>185994015.8437337800912271</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.5558203395464523</t>
+          <t>0.7844154502088870</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>5.3582383013889731</t>
+          <t>0.7360143862500346</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>crypto-com-coin</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FDUSD</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>CRO</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>30263013692.0000000000000000</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.9981423496224365</t>
+          <t>0.0917788262401183</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>868389933.0918235573069692</t>
+          <t>15791638.1174897976581714</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-0.0511699295400844</t>
+          <t>-3.3963979110792899</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.9981270091527033</t>
+          <t>0.0939707193687422</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>ethereum-classic</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ONDO</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+          <t>ETC</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>210700000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.8030236351714761</t>
+          <t>15.9208852452328779</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>74670341.4620100727813867</t>
+          <t>27487333.7796232798921862</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1.1345682941149042</t>
+          <t>-1.2542076868915623</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.7993976751103486</t>
+          <t>16.1416036492391285</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ethereum-classic</t>
+          <t>internet-computer</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ETC</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>210700000.0000000000000000</t>
-        </is>
-      </c>
+          <t>ICP</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>16.6486311282574543</t>
+          <t>4.9891428601296947</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>22675359.0339694392344875</t>
+          <t>33376880.4110255228463859</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.6334265588766031</t>
+          <t>-2.7713924255618754</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>16.6735745115257237</t>
+          <t>5.0613140970119066</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="44">
@@ -2057,330 +2057,326 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>165.8058197854711423</t>
+          <t>150.7750254452350505</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>121158203.7110956398054205</t>
+          <t>87608470.7264716814627904</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-1.5121748719392549</t>
+          <t>0.6097255077297172</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>166.4288144080013377</t>
+          <t>152.2652398563810986</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>polygon-ecosystem-token</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>FDUSD</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.2052065062406928</t>
+          <t>0.9904429254580527</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>29699721.9408520332091511</t>
+          <t>949369520.8173615605252740</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2.3144038721154221</t>
+          <t>-0.2692460873594036</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.2033455771216895</t>
+          <t>0.9954563020431530</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>official-trump</t>
+          <t>polygon-ecosystem-token</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRUMP</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>999999993.4500000000000000</t>
-        </is>
-      </c>
+          <t>POL</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>10.2187870893698504</t>
+          <t>0.1884834194599697</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>63012161.6371609577954762</t>
+          <t>21209548.9791381240436262</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1.8075082998377992</t>
+          <t>-1.3052718757090020</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10.1318337346275653</t>
+          <t>0.1898955972870207</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ENA</t>
+          <t>ATOM</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.3734755181058095</t>
+          <t>4.8834534758955887</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>67914321.7716623383926855</t>
+          <t>86858515.9997160022875943</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1.1859247625275085</t>
+          <t>-3.5032918079654008</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.3668450345000519</t>
+          <t>4.9735338879311616</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>VET</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>86712634466.0000000000000000</t>
-        </is>
-      </c>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.0228017050485719</t>
+          <t>22.1720795276852959</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>18629481.1433605644855890</t>
+          <t>7142654.3739779831888568</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.5150139617779848</t>
+          <t>0.6385761171853716</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.0229428379613368</t>
+          <t>22.3917012665938521</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TAO</t>
+          <t>VET</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>21000000.0000000000000000</t>
+          <t>86712634466.0000000000000000</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>229.6882105493986732</t>
+          <t>0.0215475961215840</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>46406660.8190885746877611</t>
+          <t>14190817.5536799267394800</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.2282403527470067</t>
+          <t>-2.3447397230509501</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>229.1538869533195157</t>
+          <t>0.0220171524324217</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
+          <t>TAO</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>21000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>22.3398144993427112</t>
+          <t>214.5979479511942044</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5788947.7322156602417288</t>
+          <t>43102750.3251179288981700</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.4061115203931678</t>
+          <t>-0.8396937393148506</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>22.3955813209491322</t>
+          <t>218.1506880415140995</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>official-trump</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TIA</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
+          <t>TRUMP</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>999999993.4500000000000000</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3.2915113021699981</t>
+          <t>9.1709079536774711</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>29436573.1350510554548689</t>
+          <t>50139210.6667041987723419</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3.9617395933837613</t>
+          <t>-1.9862469509071202</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>3.2646917573646775</t>
+          <t>9.3216786132834478</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>render</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>RENDER</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>644168762.0000000000000000</t>
-        </is>
-      </c>
+          <t>ENA</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3.5341257816944372</t>
+          <t>0.3174237535050119</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>41878757.4464811255003354</t>
+          <t>111696706.9693745113356642</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-0.0047057772223307</t>
+          <t>3.2954718847748286</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>3.5180997095937704</t>
+          <t>0.3181119040936916</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="53">
@@ -2397,370 +2393,374 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2.7769514630179134</t>
+          <t>2.6784782453862206</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>47300983.9308438848192320</t>
+          <t>90962677.6242098482646151</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1.6424405580939327</t>
+          <t>-3.1476891998765759</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2.7510559967487288</t>
+          <t>2.7425349560381062</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ATOM</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
+          <t>KAS</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>28704026601.0000000000000000</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4.3155789522937679</t>
+          <t>0.0640097356754538</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>42938439.4111218408604520</t>
+          <t>32772280.6601589891239306</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.6140060868897444</t>
+          <t>-1.8522840525275210</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>4.2848107899340939</t>
+          <t>0.0649191412563727</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>render</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>KAS</t>
+          <t>RENDER</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>28704026601.0000000000000000</t>
+          <t>644168762.0000000000000000</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.0644668520678912</t>
+          <t>3.1188637693505119</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>33291440.4753274302483704</t>
+          <t>36736600.6212317727373361</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2.2938456266575514</t>
+          <t>-2.8490902604970884</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.0647827366234392</t>
+          <t>3.2090048125533031</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>algorand</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ALGO</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>10000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>TIA</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.1820032730655277</t>
+          <t>2.6616496824553958</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>26261152.0535042777599242</t>
+          <t>39761277.4355192622326645</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0.0012023716573866</t>
+          <t>-3.1988989020804103</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.1833981648223011</t>
+          <t>2.7396610651181797</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>arbitrum</t>
+          <t>algorand</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ARB</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+          <t>ALGO</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>10000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.3351099573259959</t>
+          <t>0.1816509924233109</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>52649310.3198582177810556</t>
+          <t>48727674.2076234337120622</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1.4089376116703826</t>
+          <t>-3.6308442085070679</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.3329561775554554</t>
+          <t>0.1875315667876620</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>dexe</t>
+          <t>fantom</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DEXE</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>3175000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>17.5450784127174201</t>
+          <t>0.4968272556805392</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>6024614.2243307587455224</t>
+          <t>72630151.6937008967041485</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>-0.7301458205129890</t>
+          <t>-1.9369471753234923</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>17.6072354503262925</t>
+          <t>0.5032590663798378</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>fantom</t>
+          <t>arbitrum</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>3175000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.5016961922795378</t>
+          <t>0.3075284845141849</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>69961352.4038071328457423</t>
+          <t>37589887.6550753228170990</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2.7516662056286184</t>
+          <t>-1.6129071906172173</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.4916392583513938</t>
+          <t>0.3123092857678486</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>story-protocol</t>
+          <t>kucoin-token</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>IP</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
+          <t>KCS</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>200000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5.2855700128201552</t>
+          <t>9.9990000791955381</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>35726625.2057730489789272</t>
+          <t>763044.3467247504279478</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>-0.8162029802605712</t>
+          <t>-1.8665714453661823</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>5.3184843352990766</t>
+          <t>10.1276829647414556</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>kucoin-token</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>KCS</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>200000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>DEXE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>11.0889934019870073</t>
+          <t>14.5543588387036958</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>428749.4086693298504737</t>
+          <t>6843756.8424008348042578</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.4835362915814315</t>
+          <t>-1.6925436529937545</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>11.0754407970238027</t>
+          <t>14.5841132338178158</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>jupiter</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>JUP</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>3000000000.0000000000000000</t>
+          <t>2100000000.0000000000000000</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.4873507367731436</t>
+          <t>0.7740408247803308</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>31178267.6898823449769217</t>
+          <t>204665237.8992802913408615</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>5.5723764471883070</t>
+          <t>-3.9891612086373781</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.4799571468436546</t>
+          <t>0.7876789689792838</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="63">
@@ -2777,146 +2777,142 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.7569300524354673</t>
+          <t>0.6906367258628748</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>50726490.3408559812011848</t>
+          <t>41436927.4064229574658857</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>-1.3075779647283040</t>
+          <t>-2.5364684123140047</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.7606401781332320</t>
+          <t>0.7047939009795185</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>fetch</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FET</t>
+          <t>MKR</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2630547141.0000000000000000</t>
+          <t>1000000.0000000000000000</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.4771634515297247</t>
+          <t>1319.7309907977870499</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>51970838.5033055227028690</t>
+          <t>24798009.1274394453745674</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2.0261258404279521</t>
+          <t>-1.6612133152507702</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.4731253256999419</t>
+          <t>1339.9408180815890482</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>story-protocol</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MKR</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>1000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1277.8835969503892071</t>
+          <t>4.2126227549058454</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>24821833.8165320025226099</t>
+          <t>41565645.4437532178263581</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>-2.3563313609625416</t>
+          <t>1.6040452120392490</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1293.0421301947438959</t>
+          <t>4.2111513762671794</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>fetch</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MOVE</t>
+          <t>FET</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>10000000000.0000000000000000</t>
+          <t>2630547141.0000000000000000</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.4348792647513155</t>
+          <t>0.4290823139695365</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>42363835.1469279594119031</t>
+          <t>51391389.2318108432836973</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>-2.5457742570267453</t>
+          <t>-1.7649682350615044</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.4467783804775426</t>
+          <t>0.4404426166690381</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="67">
@@ -2933,214 +2929,214 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.0668625180513671</t>
+          <t>0.0681935602783810</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>8205801.1028391609102132</t>
+          <t>17348824.9869093127102012</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>-1.8680239168657243</t>
+          <t>1.4813410007435233</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.0675333397869372</t>
+          <t>0.0678749716024603</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>immutable-x</t>
+          <t>jupiter</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>IMX</t>
+          <t>JUP</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2000000000.0000000000000000</t>
+          <t>3000000000.0000000000000000</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.5443069795798227</t>
+          <t>0.3895412867268284</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>9130288.7088932122511410</t>
+          <t>30525484.1562683224406201</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>-0.1867011166812788</t>
+          <t>-0.4668523896222753</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.5496917541088888</t>
+          <t>0.3993753520693362</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>worldcoin-org</t>
+          <t>wbnb</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>WLD</t>
+          <t>WBNB</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.7891523637542934</t>
+          <t>607.8023226382089184</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>58323126.3876530679473321</t>
+          <t>6967505.9247991146786683</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1.6202273520265450</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.7853673363071660</t>
-        </is>
-      </c>
+          <t>-0.1297761319785972</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>stacks</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>MOVE</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1818000000.0000000000000000</t>
+          <t>10000000000.0000000000000000</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.6276748653902691</t>
+          <t>0.3715853763793692</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>12850981.4572102950465367</t>
+          <t>29073474.0473363275485684</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0.8690354315065516</t>
+          <t>-2.2157259101166024</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.6187259611593025</t>
+          <t>0.3780588968185881</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>worldcoin-org</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>EOS</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>2100000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>WLD</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.5942827620267753</t>
+          <t>0.7389524158288641</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>137928056.3355700533892776</t>
+          <t>42066369.0172604552586835</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>7.9948121210871439</t>
+          <t>-2.3376154828160741</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.5909263461151560</t>
+          <t>0.7547596852693190</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>usual-usd</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>USD0</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1818000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.9972928632796478</t>
+          <t>0.5952489732999100</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1348705.9199999998561367</t>
+          <t>14874209.7713264782453204</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>-0.0437967857502329</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr"/>
+          <t>-0.3470764063997309</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.6030549256912509</t>
+        </is>
+      </c>
       <c r="H72" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="73">
@@ -3157,134 +3153,134 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.0000114456422276</t>
+          <t>0.0000110149467905</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>39877244.6856092719498257</t>
+          <t>46957592.4075025552634865</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1.8658887951124598</t>
+          <t>-1.1324396899563101</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.0000113577179360</t>
+          <t>0.0000112403882285</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>binaryx-new</t>
+          <t>usual-usd</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FORM</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>580000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>USD0</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2.3117665021917433</t>
+          <t>0.9975669105767913</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3940362.8191875655130852</t>
+          <t>11013306.9774372448548667</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>5.1389146807053702</t>
+          <t>0.0223089258851270</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>the-graph</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>GRT</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
+          <t>QNT</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>14881364.0000000000000000</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.0902004831032584</t>
+          <t>67.8258253728595301</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>6852152.3960048324125405</t>
+          <t>10327661.1193536913987490</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2.2819502190419089</t>
+          <t>-0.9662436487499352</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0.0894596339003760</t>
+          <t>68.2135470360713095</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>binaryx-new</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SEI</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
+          <t>FORM</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>580000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.1795141173650863</t>
+          <t>2.1051311836553545</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>31264594.4284945127554423</t>
+          <t>12402619.9745368446891992</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0.7806243798684325</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>0.1790127169461673</t>
-        </is>
-      </c>
+          <t>-1.7866280526293252</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="77">
@@ -3305,886 +3301,878 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>8.8455844771411482</t>
+          <t>8.1077012171683428</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>46204096.0069090922282742</t>
+          <t>31509008.7627104435824633</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1.3664865658034554</t>
+          <t>-2.3977328427229082</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>8.7934507703710551</t>
+          <t>8.2808803340092076</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>QNT</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>14881364.0000000000000000</t>
-        </is>
-      </c>
+          <t>SEI</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>69.8403806458395623</t>
+          <t>0.1627552272635987</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>8580615.0454394374050595</t>
+          <t>27470693.5516342637879698</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1.8361118606789153</t>
+          <t>-0.5594457141081137</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>69.6649863589389351</t>
+          <t>0.1645961904243627</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>theta</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>THETA</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>1000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>FLR</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.8250902554090631</t>
+          <t>0.0130177639175995</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>9150545.1326098777901670</t>
+          <t>13230599.4345027181844558</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>-0.3223483316953380</t>
+          <t>-2.2199441123710958</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0.8296908215157212</t>
+          <t>0.0133626581849649</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>flare</t>
+          <t>the-graph</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FLR</t>
+          <t>GRT</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.0133765053946175</t>
+          <t>0.0806339487453525</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>8916528.8336567525839959</t>
+          <t>11994035.9947983401048192</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>-0.4687596962762880</t>
+          <t>-2.5139604981606193</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.0134568020841853</t>
+          <t>0.0830353936765643</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>paypal-usd</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PYUSD</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
+          <t>THETA</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.9986191324599388</t>
+          <t>0.7685649795110045</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>7767613.3753405751944598</t>
+          <t>10606949.1279642988465575</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0.0457811745326145</t>
+          <t>-1.5164951302919544</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.9984507325612567</t>
+          <t>0.7848743773049209</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>berachain</t>
+          <t>immutable-x</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BERA</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
+          <t>IMX</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>7.3700594743303074</t>
+          <t>0.4278567862812533</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>88079938.1624017367126109</t>
+          <t>24715617.5790351113854995</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>-4.7034308815679998</t>
+          <t>-6.6258070852395068</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>7.4568757377448312</t>
+          <t>0.4418055321295572</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>lido-dao</t>
+          <t>tether-gold</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>LDO</t>
+          <t>XAUT</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.8709029136527639</t>
+          <t>3049.5696004980442666</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>26585468.3217983309878982</t>
+          <t>11438551.2966462462617412</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>-0.0611823226060997</t>
+          <t>0.0705825650204422</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.8683877792521563</t>
+          <t>3045.8896645516445585</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>tether-gold</t>
+          <t>lido-dao</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>XAUT</t>
+          <t>LDO</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>3112.0994657711574893</t>
+          <t>0.8241413695080519</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>5665416.5340699813928797</t>
+          <t>23403223.0184237992617936</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>-0.0985896384745402</t>
+          <t>-1.1350431807929440</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>3101.3707950215277841</t>
+          <t>0.8354282412157075</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>paypal-usd</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NEXO</t>
+          <t>PYUSD</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1.0720738272189429</t>
+          <t>0.9986896247048628</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3009027.2267621213127244</t>
+          <t>8176622.3559834154847578</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>-0.3644110207939468</t>
+          <t>-0.0423668897249277</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1.0752977893246054</t>
+          <t>0.9988854998180445</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>JTO</t>
+          <t>XTZ</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2.2206249263348156</t>
+          <t>0.6524998237183802</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>13438681.4114001379053115</t>
+          <t>5356275.5352932198487497</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2.8823322321536347</t>
+          <t>0.1310480396504593</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2.1895671607450513</t>
+          <t>0.6564722672672684</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>GALA</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>50000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>NEXO</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.0155867533418159</t>
+          <t>1.0416330394826630</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>28214455.6147880194954554</t>
+          <t>3417671.6891369910816602</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>3.7895790928314426</t>
+          <t>-4.1259446541079839</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0.0154614354430189</t>
+          <t>1.0681829357503693</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>XTZ</t>
+          <t>SAND</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.6553397387174199</t>
+          <t>0.2605971258753032</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>4594132.2849918644839763</t>
+          <t>11757671.0229060141395455</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0.2383523717431396</t>
+          <t>-1.3215709907068394</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0.6547139980460938</t>
+          <t>0.2634073534361371</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SAND</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
+          <t>GALA</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>50000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.2718787918305082</t>
+          <t>0.0146802052719984</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>11697732.2677569289089691</t>
+          <t>14944661.6855145448439725</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1.7296246971538369</t>
+          <t>-2.9956725861710946</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0.2711383001115169</t>
+          <t>0.0150056690665242</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>bittorrent</t>
+          <t>pax-gold</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BTTOLD</t>
+          <t>PAXG</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.0000006735891265</t>
+          <t>3058.2493050277999029</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>866759.9399415633490092</t>
+          <t>23951888.6660725602864886</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>-0.0312148993952195</t>
+          <t>0.1688879733228264</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.0000006754592101</t>
+          <t>3051.1902961742908838</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>pax-gold</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>PAXG</t>
+          <t>KAIA</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>3128.1813141996282849</t>
+          <t>0.1066667426735292</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>43580887.0316971563718593</t>
+          <t>10639757.0526403514984570</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0.6020036812845043</t>
+          <t>-4.7902326792715918</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>3123.0488678173535974</t>
+          <t>0.1096319499769478</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>curve-dao-token</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>IOTA</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
+          <t>CRV</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>3030303030.2990000000000000</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0.1732474244957229</t>
+          <t>0.4794987000119727</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>8381385.3124557896662407</t>
+          <t>68658084.1102877416436332</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1.2427770178238460</t>
+          <t>-4.1688352341494520</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0.1733952818441017</t>
+          <t>0.4937295605262237</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>bitcoin-sv</t>
+          <t>bittorrent</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BSV</t>
+          <t>BTTOLD</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>32.0050867683521801</t>
+          <t>0.0000006304535300</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>6289934.9106722600451384</t>
+          <t>1594695.5449998793700430</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2.4047543256910594</t>
+          <t>-0.3783721186680034</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>31.9301772101136709</t>
+          <t>0.0000006335649573</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>curve-dao-token</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CRV</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>3030303030.2990000000000000</t>
-        </is>
-      </c>
+          <t>IOTA</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0.4817161325707116</t>
+          <t>0.1640761937425617</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>36269525.4801441155442230</t>
+          <t>8486162.0596022974926571</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>-0.9146228402189618</t>
+          <t>-1.6770321174922852</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0.4823167015160085</t>
+          <t>0.1665593724007480</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>KAIA</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
+          <t>ZEC</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>21000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.1035866006457398</t>
+          <t>38.0165434970593093</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3904182.0370301496324040</t>
+          <t>13761649.7016257340637841</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1.6406117217702562</t>
+          <t>-5.4944607393023489</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0.1031842549244072</t>
+          <t>39.6728505958842219</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>FLOW</t>
+          <t>BERA</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.3845294169799987</t>
+          <t>5.5994037137255190</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>7361446.8982467566311617</t>
+          <t>83624277.1110917705711340</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1.8262768030850598</t>
+          <t>-2.8006945059544110</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.3827218753583948</t>
+          <t>5.7727815650475102</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>pancakeswap</t>
+          <t>bitcoin-sv</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CAKE</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>450000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>BSV</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2.0017824259595451</t>
+          <t>30.2007788418203364</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>38962922.1062806904586452</t>
+          <t>9337576.1275926633598297</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0.8378996939706946</t>
+          <t>-1.6237297934225148</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2.0087839350450721</t>
+          <t>30.7408362727394145</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>HNT</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>223000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>FLOW</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>3.2492216041510443</t>
+          <t>0.3664163861569823</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>4369255.5231141701457097</t>
+          <t>4827969.6338725943268724</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>4.3736593599935697</t>
+          <t>-1.6068938914989110</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>3.2219845269735515</t>
+          <t>0.3728635525243774</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ZEC</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>21000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>JTO</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>36.4394110453019497</t>
+          <t>1.7216486749389484</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>7281308.6520834133244572</t>
+          <t>24009970.1312234433092002</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2.0131136871036532</t>
+          <t>-8.8856885061471409</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>36.1072817616090704</t>
+          <t>1.8241348979249726</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ethereum-name-service</t>
+          <t>pancakeswap</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ENS</t>
+          <t>CAKE</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>100000000.0000000000000000</t>
+          <t>450000000.0000000000000000</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>15.9895094615341476</t>
+          <t>1.8027055043330120</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>22275579.4299545932147549</t>
+          <t>18432518.8929509870979006</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1.6880833217139621</t>
+          <t>-0.8349233935220821</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>15.9153295850566025</t>
+          <t>1.8225532568576123</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
     <row r="101">
@@ -4205,26 +4193,26 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.0000588117947951</t>
+          <t>0.0000550165496603</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>38820718.3453382972285526</t>
+          <t>32122758.0520502817274049</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1.8759618715185514</t>
+          <t>-1.4199445965134872</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0.0000581744515543</t>
+          <t>0.0000562182980995</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>1743361553535</v>
+        <v>1743869821692</v>
       </c>
     </row>
   </sheetData>
